--- a/kat.xlsx
+++ b/kat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aspir\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aspir\TBR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{CF6DBB83-C31D-4BD5-A233-56B7604C05F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6DC822-25DF-41C0-B239-7DE8625E3382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="80">
   <si>
     <t>Dzienniki ogólnopolskie</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Super Express</t>
   </si>
   <si>
-    <t>Dodatki</t>
-  </si>
-  <si>
     <t>Tele Magazyn</t>
   </si>
   <si>
@@ -123,9 +120,6 @@
     <t>Polska Metropolia Warszawska</t>
   </si>
   <si>
-    <t>Tygodniki opinii</t>
-  </si>
-  <si>
     <t>Gość Niedzielny</t>
   </si>
   <si>
@@ -141,9 +135,6 @@
     <t>Tygodnik Angora</t>
   </si>
   <si>
-    <t>Tygodniki</t>
-  </si>
-  <si>
     <t>100 Rad</t>
   </si>
   <si>
@@ -180,9 +171,6 @@
     <t>Życie na Gorąco</t>
   </si>
   <si>
-    <t>Dwutygodniki</t>
-  </si>
-  <si>
     <t>Pani Domu</t>
   </si>
   <si>
@@ -219,9 +207,6 @@
     <t>Z Życia Wzięte</t>
   </si>
   <si>
-    <t>Miesięczniki</t>
-  </si>
-  <si>
     <t>Cała Ty</t>
   </si>
   <si>
@@ -270,9 +255,6 @@
     <t>Zwierciadło</t>
   </si>
   <si>
-    <t>Dwumiesięczniki</t>
-  </si>
-  <si>
     <t>Nostalgia</t>
   </si>
   <si>
@@ -280,12 +262,15 @@
   </si>
   <si>
     <t>tytuł</t>
+  </si>
+  <si>
+    <t>Magazyny</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -392,12 +377,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -406,7 +389,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
-    <cellStyle name="Normalny 3" xfId="1"/>
+    <cellStyle name="Normalny 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -717,11 +700,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A29" sqref="A29:A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -730,612 +713,612 @@
     <col min="2" max="2" width="32.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>84</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A50" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A52" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A53" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A54" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A55" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A56" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A58" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A59" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A60" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A61" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A62" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A63" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A64" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A65" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A66" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A67" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A68" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A69" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A70" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A71" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A72" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A74" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A75" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B75" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+    </row>
+    <row r="76" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76" s="5" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A31" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A32" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A33" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A36" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A37" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A38" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A39" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A40" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A41" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A42" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A43" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A44" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A45" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A46" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A48" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A49" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A50" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A51" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A52" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A53" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A54" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A55" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A56" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A57" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A58" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A60" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A61" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A62" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A63" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A64" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A65" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A66" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A67" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A68" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A69" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A70" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A71" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A72" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A73" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A74" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A76" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/kat.xlsx
+++ b/kat.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aspir\TBR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6DC822-25DF-41C0-B239-7DE8625E3382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D90F54-D659-436D-8EF9-1D7AA8510ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="96">
   <si>
     <t>Dzienniki ogólnopolskie</t>
   </si>
@@ -265,13 +266,61 @@
   </si>
   <si>
     <t>Magazyny</t>
+  </si>
+  <si>
+    <t>Wydawnictwo Bauer Sp. z o.o., Sp.k.</t>
+  </si>
+  <si>
+    <t>Polska Press Sp. z o.o.</t>
+  </si>
+  <si>
+    <t>Infor Biznes Sp. z o.o.</t>
+  </si>
+  <si>
+    <t>Burda Media Polska Sp. z o.o.</t>
+  </si>
+  <si>
+    <t>Ringier Axel Springer Polska Sp. z o.o.</t>
+  </si>
+  <si>
+    <t>Agora S.A.</t>
+  </si>
+  <si>
+    <t>Instytut Gość Media</t>
+  </si>
+  <si>
+    <t>Time S.A.</t>
+  </si>
+  <si>
+    <t>Polska Press Sp. z o.o. - Pro Media Sp. z o.o.</t>
+  </si>
+  <si>
+    <t>Gremi Media S.A.</t>
+  </si>
+  <si>
+    <t>Polityka Sp. z o.o., S.K.A.</t>
+  </si>
+  <si>
+    <t>Bonnier Business Polska Sp. z o.o.</t>
+  </si>
+  <si>
+    <t>Fratria Sp. z o.o.</t>
+  </si>
+  <si>
+    <t>Wydawnictwo Westa-Druk Sp. z o.o.</t>
+  </si>
+  <si>
+    <t>Wydawnictwo Zwierciadło Sp. z o.o.</t>
+  </si>
+  <si>
+    <t>wydawca</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,6 +346,25 @@
       <name val="Lato"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -306,7 +374,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -372,12 +440,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD9D9D9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -386,13 +470,54 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny 2" xfId="2" xr:uid="{EB99337E-C58F-4D48-8037-33588F87C5EF}"/>
     <cellStyle name="Normalny 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{C7338911-9A0F-4942-892B-3BF593C38854}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -701,10 +826,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B76"/>
+  <dimension ref="A1:C76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:A76"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -713,612 +838,1458 @@
     <col min="2" max="2" width="32.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>77</v>
       </c>
       <c r="B1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="24" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="C2" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="C3" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="C4" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="24" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="C5" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="48" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="C6" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="24" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C7" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="C8" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="C9" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="C10" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="C11" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="C12" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="C13" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="C14" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="C15" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="C16" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="C17" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="C18" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="C19" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="C20" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="C21" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="C22" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="C23" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="C24" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="60" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="C25" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="C26" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C27" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="36.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="C28" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="48" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="48" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="48" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="48" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="48.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="60" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="48" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="24" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B30" s="1" t="s">
+      <c r="C36" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="48" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="48" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="48" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="48" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="48" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="60" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B31" s="1" t="s">
+      <c r="C43" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="48" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="48.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="48" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="48" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="36" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B32" s="1" t="s">
+      <c r="C48" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="48" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="48" x14ac:dyDescent="0.35">
+      <c r="A50" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="48" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="48" x14ac:dyDescent="0.35">
+      <c r="A52" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="48" x14ac:dyDescent="0.35">
+      <c r="A53" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="48" x14ac:dyDescent="0.35">
+      <c r="A54" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="24" x14ac:dyDescent="0.35">
+      <c r="A55" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B33" s="1" t="s">
+      <c r="C55" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="48" x14ac:dyDescent="0.35">
+      <c r="A56" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="48.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="48" x14ac:dyDescent="0.35">
+      <c r="A58" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="48" x14ac:dyDescent="0.35">
+      <c r="A59" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="48" x14ac:dyDescent="0.35">
+      <c r="A60" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="48" x14ac:dyDescent="0.35">
+      <c r="A61" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="36" x14ac:dyDescent="0.35">
+      <c r="A62" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="48" x14ac:dyDescent="0.35">
+      <c r="A63" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="48" x14ac:dyDescent="0.35">
+      <c r="A64" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="48" x14ac:dyDescent="0.35">
+      <c r="A65" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="48" x14ac:dyDescent="0.35">
+      <c r="A66" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="48" x14ac:dyDescent="0.35">
+      <c r="A67" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="48" x14ac:dyDescent="0.35">
+      <c r="A68" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="48" x14ac:dyDescent="0.35">
+      <c r="A69" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="48" x14ac:dyDescent="0.35">
+      <c r="A70" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="48" x14ac:dyDescent="0.35">
+      <c r="A71" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A34" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B34" s="7" t="s">
+      <c r="C71" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="48" x14ac:dyDescent="0.35">
+      <c r="A72" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="48" x14ac:dyDescent="0.35">
+      <c r="A74" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="48" x14ac:dyDescent="0.35">
+      <c r="A75" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="48.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C76">
+    <sortCondition ref="A2:A76"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7AA873C-16D0-478D-8413-90B3391C3702}">
+  <dimension ref="A1:B75"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B75" sqref="B1:B75"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="48" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B35" s="1" t="s">
+      <c r="B1" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="48" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="48" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A36" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B36" s="1" t="s">
+      <c r="B3" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="48" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A37" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B37" s="1" t="s">
+      <c r="B4" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="36" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="36" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="36" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="36" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="36" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="36" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="48" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="36" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="36" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="60" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="60" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="36" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="36" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="36" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="36" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="36" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="24" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="48" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="36" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="36" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="24" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="48" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="36" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="36" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="48" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A38" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B38" s="1" t="s">
+      <c r="B29" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="48" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="48" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A39" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B39" s="1" t="s">
+      <c r="B31" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="48" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A40" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B40" s="1" t="s">
+      <c r="B33" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="60" x14ac:dyDescent="0.3">
+      <c r="A34" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="48" x14ac:dyDescent="0.3">
+      <c r="A35" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="60" x14ac:dyDescent="0.3">
+      <c r="A36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="36" x14ac:dyDescent="0.3">
+      <c r="A37" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="36" x14ac:dyDescent="0.3">
+      <c r="A38" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="48" x14ac:dyDescent="0.3">
+      <c r="A39" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="48" x14ac:dyDescent="0.3">
+      <c r="A40" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="48" x14ac:dyDescent="0.3">
+      <c r="A41" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="36" x14ac:dyDescent="0.3">
+      <c r="A42" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="36" x14ac:dyDescent="0.3">
+      <c r="A43" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="48" x14ac:dyDescent="0.3">
+      <c r="A44" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="48" x14ac:dyDescent="0.3">
+      <c r="A45" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="48" x14ac:dyDescent="0.3">
+      <c r="A46" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="48" x14ac:dyDescent="0.3">
+      <c r="A47" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="48" x14ac:dyDescent="0.3">
+      <c r="A48" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="48" x14ac:dyDescent="0.3">
+      <c r="A49" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="48" x14ac:dyDescent="0.3">
+      <c r="A50" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A41" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B41" s="1" t="s">
+      <c r="B50" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="24" x14ac:dyDescent="0.3">
+      <c r="A51" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="48" x14ac:dyDescent="0.3">
+      <c r="A52" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="24" x14ac:dyDescent="0.3">
+      <c r="A53" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="48" x14ac:dyDescent="0.3">
+      <c r="A54" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="24" x14ac:dyDescent="0.3">
+      <c r="A55" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="48" x14ac:dyDescent="0.3">
+      <c r="A56" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="48" x14ac:dyDescent="0.3">
+      <c r="A57" s="10" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A42" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B42" s="1" t="s">
+      <c r="B57" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="48" x14ac:dyDescent="0.3">
+      <c r="A58" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="48" x14ac:dyDescent="0.3">
+      <c r="A59" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="48" x14ac:dyDescent="0.3">
+      <c r="A60" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="36" x14ac:dyDescent="0.3">
+      <c r="A61" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="48" x14ac:dyDescent="0.3">
+      <c r="A62" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="48" x14ac:dyDescent="0.3">
+      <c r="A63" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="48" x14ac:dyDescent="0.3">
+      <c r="A64" s="10" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A43" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B43" s="1" t="s">
+      <c r="B64" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="48" x14ac:dyDescent="0.3">
+      <c r="A65" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="48" x14ac:dyDescent="0.3">
+      <c r="A66" s="10" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A44" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B44" s="1" t="s">
+      <c r="B66" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="48" x14ac:dyDescent="0.3">
+      <c r="A67" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="48" x14ac:dyDescent="0.3">
+      <c r="A68" s="10" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B45" s="5" t="s">
+      <c r="B68" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="48" x14ac:dyDescent="0.3">
+      <c r="A69" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="48" x14ac:dyDescent="0.3">
+      <c r="A70" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="48" x14ac:dyDescent="0.3">
+      <c r="A71" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="48" x14ac:dyDescent="0.3">
+      <c r="A72" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="48" x14ac:dyDescent="0.3">
+      <c r="A73" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="48" x14ac:dyDescent="0.3">
+      <c r="A74" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="48" x14ac:dyDescent="0.3">
+      <c r="A75" s="10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A46" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A47" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A48" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A49" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A50" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A51" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A52" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A53" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A54" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A55" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A56" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A58" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A59" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A60" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A61" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A62" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A63" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A64" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A65" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A66" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A67" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A68" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A69" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A70" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A71" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A72" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A74" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A75" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>9</v>
+      <c r="B75" s="10" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/kat.xlsx
+++ b/kat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aspir\TBR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D90F54-D659-436D-8EF9-1D7AA8510ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE30AFD8-E48D-4AE5-BB3E-8A0FAEA3A066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="97">
   <si>
     <t>Dzienniki ogólnopolskie</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>Super Express</t>
+  </si>
+  <si>
+    <t>Dodatki</t>
   </si>
   <si>
     <t>Tele Magazyn</t>
@@ -828,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -840,13 +843,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" x14ac:dyDescent="0.35">
@@ -857,7 +860,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.35">
@@ -868,7 +871,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.35">
@@ -879,7 +882,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" x14ac:dyDescent="0.35">
@@ -890,7 +893,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="48" x14ac:dyDescent="0.35">
@@ -901,7 +904,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="24" x14ac:dyDescent="0.35">
@@ -912,7 +915,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
@@ -923,598 +926,598 @@
         <v>7</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="60" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="36.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="48" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="48" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="48" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="48" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="48.6" thickBot="1" x14ac:dyDescent="0.4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="48" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="60" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="48.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B34" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="48" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" ht="60" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B35" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>63</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="24" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="48" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="48" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="24" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="48" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="48" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="48" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="48" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="48" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="60" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="48" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="48" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="60" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="48.6" thickBot="1" x14ac:dyDescent="0.4">
+        <v>33</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="48" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="48" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="48.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B46" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>68</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="48" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>48</v>
+        <v>80</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="36" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="48" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="48" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="48" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="48" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="48" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="48" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="48" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="24" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="48" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="48" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="24" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="48.6" thickBot="1" x14ac:dyDescent="0.4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="48" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B57" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="48" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="48.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>43</v>
+        <v>80</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="48" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="48" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="48" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="36" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="48" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="C62" s="10" t="s">
         <v>81</v>
@@ -1522,156 +1525,156 @@
     </row>
     <row r="63" spans="1:3" ht="48" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="48" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="48" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="48" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="48" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="48" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="48" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="48" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="48" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="48" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="2" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="48" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="48" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="48.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1694,42 +1697,42 @@
   <sheetData>
     <row r="1" spans="1:2" ht="48" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="48" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="48" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="48" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="36" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="36" x14ac:dyDescent="0.3">
@@ -1737,63 +1740,63 @@
         <v>1</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="36" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="36" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="36" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="36" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="48" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="36" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="36" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="60" x14ac:dyDescent="0.3">
@@ -1801,55 +1804,55 @@
         <v>2</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="60" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="36" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="36" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="36" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="36" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="36" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="24" x14ac:dyDescent="0.3">
@@ -1857,167 +1860,167 @@
         <v>3</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="48" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="36" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="36" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="24" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="48" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="36" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="36" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="48" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="48" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="48" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="48" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="60" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="48" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="60" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="36" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="36" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="48" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="48" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="48" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="36" x14ac:dyDescent="0.3">
@@ -2025,47 +2028,47 @@
         <v>4</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="36" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="48" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="48" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="48" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="48" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="48" x14ac:dyDescent="0.3">
@@ -2073,23 +2076,23 @@
         <v>5</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="48" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="48" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="24" x14ac:dyDescent="0.3">
@@ -2097,31 +2100,31 @@
         <v>6</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="48" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="24" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="48" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="24" x14ac:dyDescent="0.3">
@@ -2129,167 +2132,167 @@
         <v>7</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="48" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="48" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="48" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="48" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="48" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="36" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="48" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="48" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="48" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="48" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="48" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="48" x14ac:dyDescent="0.3">
       <c r="A67" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="48" x14ac:dyDescent="0.3">
       <c r="A68" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="48" x14ac:dyDescent="0.3">
       <c r="A69" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="48" x14ac:dyDescent="0.3">
       <c r="A70" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="48" x14ac:dyDescent="0.3">
       <c r="A71" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="48" x14ac:dyDescent="0.3">
       <c r="A72" s="10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="48" x14ac:dyDescent="0.3">
       <c r="A73" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="48" x14ac:dyDescent="0.3">
       <c r="A74" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="48" x14ac:dyDescent="0.3">
       <c r="A75" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
